--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.60724880982343</v>
+        <v>2707.842513154814</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.60724880982343</v>
+        <v>2707.842513154814</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77195.17164331314</v>
+        <v>5158171.367520151</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77195.17164331314</v>
+        <v>5158171.367520151</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341813196.588736</v>
+        <v>49380218.25583993</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14134.17207483002</v>
+        <v>1152428.718611052</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27290.02505288939</v>
+        <v>2134979.868779078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40437.19123760126</v>
+        <v>3117531.018947104</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53867.8746679318</v>
+        <v>4099097.376004025</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67298.57002601906</v>
+        <v>5080663.733060945</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80729.26538410631</v>
+        <v>6062230.090117863</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94159.96074219355</v>
+        <v>7043796.447174779</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107590.6561002808</v>
+        <v>8025362.804231694</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121031.0927473694</v>
+        <v>9005904.852564441</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134460.9892585774</v>
+        <v>9987188.492521349</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147890.4898101895</v>
+        <v>10968393.33651866</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161321.5067567051</v>
+        <v>11950023.68967283</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174752.2021147924</v>
+        <v>12931590.04672975</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188182.8974728796</v>
+        <v>13913156.40378668</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201626.5630860777</v>
+        <v>14893841.24417628</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
